--- a/data/pca/factorExposure/factorExposure_2014-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.006280909118024616</v>
+        <v>-0.01581247533047038</v>
       </c>
       <c r="C2">
-        <v>-0.09440108098379625</v>
+        <v>-0.07080030148786769</v>
       </c>
       <c r="D2">
-        <v>-0.02066432187652936</v>
+        <v>-0.02697058102830631</v>
       </c>
       <c r="E2">
-        <v>-0.1876944098417306</v>
+        <v>0.03904379817064699</v>
       </c>
       <c r="F2">
-        <v>0.1732217956712095</v>
+        <v>0.1611495261851848</v>
       </c>
       <c r="G2">
-        <v>-0.05193044012276525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.02690537224313863</v>
+      </c>
+      <c r="H2">
+        <v>-0.05430784195436931</v>
+      </c>
+      <c r="I2">
+        <v>0.005646185200232343</v>
+      </c>
+      <c r="J2">
+        <v>-0.1771206190044938</v>
+      </c>
+      <c r="K2">
+        <v>0.06982237062568521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0316876066339404</v>
+        <v>-0.02182403012258383</v>
       </c>
       <c r="C4">
-        <v>-0.1740468295562203</v>
+        <v>-0.1512093324460583</v>
       </c>
       <c r="D4">
-        <v>0.01654530963160353</v>
+        <v>-0.06049597646829154</v>
       </c>
       <c r="E4">
-        <v>-0.1172319903181224</v>
+        <v>-0.04039383281638382</v>
       </c>
       <c r="F4">
-        <v>-0.007547890282446005</v>
+        <v>0.08139531246290618</v>
       </c>
       <c r="G4">
-        <v>-0.06942864264852028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02082067847249205</v>
+      </c>
+      <c r="H4">
+        <v>-0.109799698382078</v>
+      </c>
+      <c r="I4">
+        <v>0.01597885720202837</v>
+      </c>
+      <c r="J4">
+        <v>-0.1587801990029398</v>
+      </c>
+      <c r="K4">
+        <v>-0.09462228719569933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03131090556483499</v>
+        <v>-0.04041633547698394</v>
       </c>
       <c r="C6">
-        <v>-0.07099167261010256</v>
+        <v>-0.08538083630872781</v>
       </c>
       <c r="D6">
-        <v>0.03486243742261502</v>
+        <v>-0.02251117781556642</v>
       </c>
       <c r="E6">
-        <v>-0.08103255570895451</v>
+        <v>0.03853365024418448</v>
       </c>
       <c r="F6">
-        <v>0.009944133019899255</v>
+        <v>0.0495298950048428</v>
       </c>
       <c r="G6">
-        <v>0.02153416654535645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04047730454071728</v>
+      </c>
+      <c r="H6">
+        <v>-0.03142575801009072</v>
+      </c>
+      <c r="I6">
+        <v>-0.07564974419962363</v>
+      </c>
+      <c r="J6">
+        <v>-0.0562544777023095</v>
+      </c>
+      <c r="K6">
+        <v>0.04288086219847406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.008719227871518073</v>
+        <v>-0.01321056569252629</v>
       </c>
       <c r="C7">
-        <v>-0.05280362505376782</v>
+        <v>-0.06836540601031382</v>
       </c>
       <c r="D7">
-        <v>0.01322454970916533</v>
+        <v>-0.02139745910190054</v>
       </c>
       <c r="E7">
-        <v>-0.0625205768029511</v>
+        <v>-0.02140800861024121</v>
       </c>
       <c r="F7">
-        <v>-0.02115966580318067</v>
+        <v>0.009428457980405605</v>
       </c>
       <c r="G7">
-        <v>-0.01940533653437161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05553186973873369</v>
+      </c>
+      <c r="H7">
+        <v>-0.1002742612297644</v>
+      </c>
+      <c r="I7">
+        <v>-0.006921070619965128</v>
+      </c>
+      <c r="J7">
+        <v>-0.03549688286583638</v>
+      </c>
+      <c r="K7">
+        <v>-0.001215942928384088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.00469269630814319</v>
+        <v>0.0004098402969533373</v>
       </c>
       <c r="C8">
-        <v>-0.07138349990913284</v>
+        <v>-0.06602810685174293</v>
       </c>
       <c r="D8">
-        <v>0.01717992077528269</v>
+        <v>-0.04264996316149087</v>
       </c>
       <c r="E8">
-        <v>-0.08868421528863034</v>
+        <v>-0.001956096497431632</v>
       </c>
       <c r="F8">
-        <v>0.01868206986088712</v>
+        <v>0.06071056808691448</v>
       </c>
       <c r="G8">
-        <v>-0.05261302203255139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02582378431523867</v>
+      </c>
+      <c r="H8">
+        <v>-0.06169879360803178</v>
+      </c>
+      <c r="I8">
+        <v>-0.0006479508081724649</v>
+      </c>
+      <c r="J8">
+        <v>-0.004658608156301884</v>
+      </c>
+      <c r="K8">
+        <v>-0.002912712084467994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01726019096446556</v>
+        <v>-0.01412526999345214</v>
       </c>
       <c r="C9">
-        <v>-0.1378860378922503</v>
+        <v>-0.1129883956102066</v>
       </c>
       <c r="D9">
-        <v>0.02541927876718544</v>
+        <v>-0.04155792401125302</v>
       </c>
       <c r="E9">
-        <v>-0.06141877755570594</v>
+        <v>-0.01024390007652992</v>
       </c>
       <c r="F9">
-        <v>-0.01068988816766259</v>
+        <v>0.03289550955820602</v>
       </c>
       <c r="G9">
-        <v>0.0002190889832175001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.01187542438066795</v>
+      </c>
+      <c r="H9">
+        <v>-0.09604993327366959</v>
+      </c>
+      <c r="I9">
+        <v>-0.01746883090560971</v>
+      </c>
+      <c r="J9">
+        <v>-0.07664931451334399</v>
+      </c>
+      <c r="K9">
+        <v>-0.06141405172445873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2701296627163807</v>
+        <v>-0.2495893556193994</v>
       </c>
       <c r="C10">
-        <v>0.108944926830994</v>
+        <v>0.1002255571609199</v>
       </c>
       <c r="D10">
-        <v>-0.02278313423359563</v>
+        <v>0.006121850936162338</v>
       </c>
       <c r="E10">
-        <v>0.02798519778671047</v>
+        <v>0.01209457387748115</v>
       </c>
       <c r="F10">
-        <v>-0.02338558933795208</v>
+        <v>0.001406806765661707</v>
       </c>
       <c r="G10">
-        <v>0.005000517123849703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01799951885387941</v>
+      </c>
+      <c r="H10">
+        <v>-0.04573051266957279</v>
+      </c>
+      <c r="I10">
+        <v>0.1729910529941671</v>
+      </c>
+      <c r="J10">
+        <v>0.08847555050450455</v>
+      </c>
+      <c r="K10">
+        <v>-0.06668904343611154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01296177072282406</v>
+        <v>-0.01616465214457241</v>
       </c>
       <c r="C11">
-        <v>-0.06675223737426823</v>
+        <v>-0.08258530086925145</v>
       </c>
       <c r="D11">
-        <v>0.01941412744002471</v>
+        <v>-0.0334654956372343</v>
       </c>
       <c r="E11">
-        <v>-0.02134013867284138</v>
+        <v>-0.008530878521746475</v>
       </c>
       <c r="F11">
-        <v>-0.05580116180567479</v>
+        <v>-0.004892619541825148</v>
       </c>
       <c r="G11">
-        <v>0.03119559504313229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02029751343339012</v>
+      </c>
+      <c r="H11">
+        <v>-0.03523871771215605</v>
+      </c>
+      <c r="I11">
+        <v>-0.01684635384684776</v>
+      </c>
+      <c r="J11">
+        <v>0.02550949370795686</v>
+      </c>
+      <c r="K11">
+        <v>-0.03526525601133786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.006711039874414508</v>
+        <v>-0.01599955238667516</v>
       </c>
       <c r="C12">
-        <v>-0.06160592679486172</v>
+        <v>-0.06180867216498516</v>
       </c>
       <c r="D12">
-        <v>0.02386558048603073</v>
+        <v>-0.0209157533620284</v>
       </c>
       <c r="E12">
-        <v>-0.01475746318548299</v>
+        <v>0.01781050357801708</v>
       </c>
       <c r="F12">
-        <v>-0.02751917595225044</v>
+        <v>-0.004828820063392365</v>
       </c>
       <c r="G12">
-        <v>0.05979537228914371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03141352107311468</v>
+      </c>
+      <c r="H12">
+        <v>-0.03354218834936879</v>
+      </c>
+      <c r="I12">
+        <v>-0.0119967094260078</v>
+      </c>
+      <c r="J12">
+        <v>0.009982266112388834</v>
+      </c>
+      <c r="K12">
+        <v>-0.0337695261194822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02909645320801947</v>
+        <v>-0.006053754581643944</v>
       </c>
       <c r="C13">
-        <v>-0.1049854764381616</v>
+        <v>-0.1122178029554715</v>
       </c>
       <c r="D13">
-        <v>0.0303023088193519</v>
+        <v>-0.03516105014779372</v>
       </c>
       <c r="E13">
-        <v>-0.1151473939136022</v>
+        <v>0.1048321380890555</v>
       </c>
       <c r="F13">
-        <v>-0.04411248506968677</v>
+        <v>0.1321095981461791</v>
       </c>
       <c r="G13">
-        <v>0.1553150189894671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1057587809589197</v>
+      </c>
+      <c r="H13">
+        <v>-0.1381460324064797</v>
+      </c>
+      <c r="I13">
+        <v>0.188710336773844</v>
+      </c>
+      <c r="J13">
+        <v>0.1832757790483655</v>
+      </c>
+      <c r="K13">
+        <v>0.1225402457895712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0104336016883354</v>
+        <v>-0.01795975194560335</v>
       </c>
       <c r="C14">
-        <v>-0.06140729248657478</v>
+        <v>-0.07339093604780328</v>
       </c>
       <c r="D14">
-        <v>0.01646762030444508</v>
+        <v>-0.04500927147401274</v>
       </c>
       <c r="E14">
-        <v>-0.05854740720612906</v>
+        <v>0.04258823724302831</v>
       </c>
       <c r="F14">
-        <v>-0.002574804601303511</v>
+        <v>0.0186968126195839</v>
       </c>
       <c r="G14">
-        <v>0.05489945290589277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.08034043306795614</v>
+      </c>
+      <c r="H14">
+        <v>-0.2068009651829076</v>
+      </c>
+      <c r="I14">
+        <v>-0.03714279167517413</v>
+      </c>
+      <c r="J14">
+        <v>0.1162265451892911</v>
+      </c>
+      <c r="K14">
+        <v>0.1106500884574721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.00716374367090585</v>
+        <v>-0.001327917899106554</v>
       </c>
       <c r="C15">
-        <v>-0.08745531436168784</v>
+        <v>-0.07748414670093129</v>
       </c>
       <c r="D15">
-        <v>0.01619350226182459</v>
+        <v>-0.03104083623914862</v>
       </c>
       <c r="E15">
-        <v>-0.1039983250386884</v>
+        <v>-0.0077707992115556</v>
       </c>
       <c r="F15">
-        <v>-0.01192823090726379</v>
+        <v>0.03374780033897023</v>
       </c>
       <c r="G15">
-        <v>0.01827835934515952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.04654054473633169</v>
+      </c>
+      <c r="H15">
+        <v>-0.0858628212124446</v>
+      </c>
+      <c r="I15">
+        <v>-0.03057560668281733</v>
+      </c>
+      <c r="J15">
+        <v>0.05294874434671664</v>
+      </c>
+      <c r="K15">
+        <v>-0.004184435994402517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01273028271679006</v>
+        <v>-0.01547825709762943</v>
       </c>
       <c r="C16">
-        <v>-0.06376640203955147</v>
+        <v>-0.06557047272038083</v>
       </c>
       <c r="D16">
-        <v>0.01210532479380886</v>
+        <v>-0.0248571114754622</v>
       </c>
       <c r="E16">
-        <v>-0.01691202898610807</v>
+        <v>-0.003490368074865554</v>
       </c>
       <c r="F16">
-        <v>-0.03024076301170109</v>
+        <v>-0.002436473941301043</v>
       </c>
       <c r="G16">
-        <v>0.03199520996992287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.01785240128066253</v>
+      </c>
+      <c r="H16">
+        <v>-0.02684957926986269</v>
+      </c>
+      <c r="I16">
+        <v>-0.01445872943474781</v>
+      </c>
+      <c r="J16">
+        <v>0.008409821416598158</v>
+      </c>
+      <c r="K16">
+        <v>-0.02309378253369882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0110438409762804</v>
+        <v>-0.01277548998850241</v>
       </c>
       <c r="C20">
-        <v>-0.08429425792641035</v>
+        <v>-0.0844994092146138</v>
       </c>
       <c r="D20">
-        <v>0.001251723388093132</v>
+        <v>-0.0210131569830522</v>
       </c>
       <c r="E20">
-        <v>-0.05399358834033477</v>
+        <v>-0.0280342688394267</v>
       </c>
       <c r="F20">
-        <v>-0.07227291910554984</v>
+        <v>0.001872637306473949</v>
       </c>
       <c r="G20">
-        <v>0.04345027984788648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05114845655893014</v>
+      </c>
+      <c r="H20">
+        <v>-0.07121149973338002</v>
+      </c>
+      <c r="I20">
+        <v>-0.02063201868912761</v>
+      </c>
+      <c r="J20">
+        <v>-0.01616497403899801</v>
+      </c>
+      <c r="K20">
+        <v>-0.02007356705582192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002763126013839878</v>
+        <v>-0.01387689499011266</v>
       </c>
       <c r="C21">
-        <v>-0.09561323072431489</v>
+        <v>-0.07930147500296991</v>
       </c>
       <c r="D21">
-        <v>-0.03136761602148527</v>
+        <v>-0.02312970457808905</v>
       </c>
       <c r="E21">
-        <v>-0.04071927841587041</v>
+        <v>0.07992642031888869</v>
       </c>
       <c r="F21">
-        <v>0.03686134726565993</v>
+        <v>0.02699161823163236</v>
       </c>
       <c r="G21">
-        <v>0.03790883832083657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.001459378389713826</v>
+      </c>
+      <c r="H21">
+        <v>-0.1530279176471891</v>
+      </c>
+      <c r="I21">
+        <v>0.03419975572210757</v>
+      </c>
+      <c r="J21">
+        <v>0.04796072177563391</v>
+      </c>
+      <c r="K21">
+        <v>-0.003045745654686944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05127094270461172</v>
+        <v>-0.005863033464512907</v>
       </c>
       <c r="C22">
-        <v>-0.1529576403543529</v>
+        <v>-0.162219123824917</v>
       </c>
       <c r="D22">
-        <v>-0.1210060199472671</v>
+        <v>-0.00869965995022921</v>
       </c>
       <c r="E22">
-        <v>-0.2721653290552717</v>
+        <v>-0.1407015489441436</v>
       </c>
       <c r="F22">
-        <v>0.02759176777638836</v>
+        <v>0.4994605384696777</v>
       </c>
       <c r="G22">
-        <v>-0.2467553551824778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.08888802149396675</v>
+      </c>
+      <c r="H22">
+        <v>0.3052407513631344</v>
+      </c>
+      <c r="I22">
+        <v>0.03081893787992084</v>
+      </c>
+      <c r="J22">
+        <v>0.2191489085304861</v>
+      </c>
+      <c r="K22">
+        <v>-0.02632820119818004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.05100083497469872</v>
+        <v>-0.01084815273482775</v>
       </c>
       <c r="C23">
-        <v>-0.1536440924597891</v>
+        <v>-0.1660338789466923</v>
       </c>
       <c r="D23">
-        <v>-0.1207267496705415</v>
+        <v>-0.007462438390649513</v>
       </c>
       <c r="E23">
-        <v>-0.2685710541011669</v>
+        <v>-0.134512831464962</v>
       </c>
       <c r="F23">
-        <v>0.02734816739393137</v>
+        <v>0.4836933480668775</v>
       </c>
       <c r="G23">
-        <v>-0.2450013777630232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.08457915199025745</v>
+      </c>
+      <c r="H23">
+        <v>0.2837364000105185</v>
+      </c>
+      <c r="I23">
+        <v>0.02404327254362945</v>
+      </c>
+      <c r="J23">
+        <v>0.2069524482137989</v>
+      </c>
+      <c r="K23">
+        <v>-0.03442769978495223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.00714116502402985</v>
+        <v>-0.01646478897366008</v>
       </c>
       <c r="C24">
-        <v>-0.07427789966468444</v>
+        <v>-0.07356560222998931</v>
       </c>
       <c r="D24">
-        <v>0.03559591856257392</v>
+        <v>-0.03786237608494099</v>
       </c>
       <c r="E24">
-        <v>-0.02046240114398792</v>
+        <v>-0.006241261152109248</v>
       </c>
       <c r="F24">
-        <v>-0.03890450634000257</v>
+        <v>-0.005025690974152624</v>
       </c>
       <c r="G24">
-        <v>0.04058643359873572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02665453780486512</v>
+      </c>
+      <c r="H24">
+        <v>-0.04627073062125405</v>
+      </c>
+      <c r="I24">
+        <v>-0.01635740470748533</v>
+      </c>
+      <c r="J24">
+        <v>0.01425819746520922</v>
+      </c>
+      <c r="K24">
+        <v>-0.03828392035015715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.009847480485940245</v>
+        <v>-0.02089339030425647</v>
       </c>
       <c r="C25">
-        <v>-0.06555786587685593</v>
+        <v>-0.07089276853587149</v>
       </c>
       <c r="D25">
-        <v>0.008676072652048158</v>
+        <v>-0.02538495791546767</v>
       </c>
       <c r="E25">
-        <v>-0.01585107925925074</v>
+        <v>-0.008484406695834818</v>
       </c>
       <c r="F25">
-        <v>-0.04931712798923858</v>
+        <v>-0.001530865754476119</v>
       </c>
       <c r="G25">
-        <v>0.03943691060850354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02696670469235866</v>
+      </c>
+      <c r="H25">
+        <v>-0.03818758198953111</v>
+      </c>
+      <c r="I25">
+        <v>-0.00375019684876362</v>
+      </c>
+      <c r="J25">
+        <v>0.02768606161747355</v>
+      </c>
+      <c r="K25">
+        <v>-0.02685799779569188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.00537706910999913</v>
+        <v>-0.02325617872243037</v>
       </c>
       <c r="C26">
-        <v>-0.05856980509235796</v>
+        <v>-0.06144365490227279</v>
       </c>
       <c r="D26">
-        <v>0.04628465363822813</v>
+        <v>-0.0600181180562078</v>
       </c>
       <c r="E26">
-        <v>-0.02963391212739043</v>
+        <v>-0.001758705112308422</v>
       </c>
       <c r="F26">
-        <v>0.002379553890418027</v>
+        <v>-0.01709403126688649</v>
       </c>
       <c r="G26">
-        <v>0.02476007735646657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003750104720277084</v>
+      </c>
+      <c r="H26">
+        <v>-0.1016995999069366</v>
+      </c>
+      <c r="I26">
+        <v>-0.04472140463426495</v>
+      </c>
+      <c r="J26">
+        <v>-0.09694514983263476</v>
+      </c>
+      <c r="K26">
+        <v>-0.07828652286554492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3733858669918655</v>
+        <v>-0.3179440582965357</v>
       </c>
       <c r="C28">
-        <v>0.1180667342838492</v>
+        <v>0.1123571417354578</v>
       </c>
       <c r="D28">
-        <v>-0.0197067006701385</v>
+        <v>0.02901148694967471</v>
       </c>
       <c r="E28">
-        <v>0.1216088247533625</v>
+        <v>-0.0004751790593874162</v>
       </c>
       <c r="F28">
-        <v>0.0180443270108587</v>
+        <v>0.01183020661061585</v>
       </c>
       <c r="G28">
-        <v>0.02761221540821756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1079193450718254</v>
+      </c>
+      <c r="H28">
+        <v>-0.05788861461523694</v>
+      </c>
+      <c r="I28">
+        <v>0.2117395271911007</v>
+      </c>
+      <c r="J28">
+        <v>-0.01495025346719353</v>
+      </c>
+      <c r="K28">
+        <v>0.01055460024092958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01388008539235122</v>
+        <v>-0.01327571922676571</v>
       </c>
       <c r="C29">
-        <v>-0.06193571833224873</v>
+        <v>-0.07735517792994048</v>
       </c>
       <c r="D29">
-        <v>0.02754377309591174</v>
+        <v>-0.04956681789331727</v>
       </c>
       <c r="E29">
-        <v>-0.08560442706124752</v>
+        <v>0.04870981432833979</v>
       </c>
       <c r="F29">
-        <v>-0.03059468602087622</v>
+        <v>0.03630541871366207</v>
       </c>
       <c r="G29">
-        <v>0.08558384473412076</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.127202680330808</v>
+      </c>
+      <c r="H29">
+        <v>-0.2913844225501905</v>
+      </c>
+      <c r="I29">
+        <v>-0.03815588679679566</v>
+      </c>
+      <c r="J29">
+        <v>0.1724619872569658</v>
+      </c>
+      <c r="K29">
+        <v>0.2046816395467672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03950781521607828</v>
+        <v>-0.0288139507277029</v>
       </c>
       <c r="C30">
-        <v>-0.1775664582383658</v>
+        <v>-0.1484263098998188</v>
       </c>
       <c r="D30">
-        <v>0.03911951281360709</v>
+        <v>-0.05238340110908236</v>
       </c>
       <c r="E30">
-        <v>-0.06365914631593322</v>
+        <v>-0.02086764809839084</v>
       </c>
       <c r="F30">
-        <v>-0.004449161461704087</v>
+        <v>0.0613949758492166</v>
       </c>
       <c r="G30">
-        <v>-0.0379253947552494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01190762327662265</v>
+      </c>
+      <c r="H30">
+        <v>-0.0309327222437386</v>
+      </c>
+      <c r="I30">
+        <v>-0.04309123417928257</v>
+      </c>
+      <c r="J30">
+        <v>-0.09185409928459017</v>
+      </c>
+      <c r="K30">
+        <v>-0.02711129751315487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003386216072961214</v>
+        <v>-0.01121405665499947</v>
       </c>
       <c r="C31">
-        <v>-0.09145399992543868</v>
+        <v>-0.09312392449479456</v>
       </c>
       <c r="D31">
-        <v>0.04373704162187088</v>
+        <v>-0.04162804487132337</v>
       </c>
       <c r="E31">
-        <v>0.04780712290242492</v>
+        <v>0.003842664383971079</v>
       </c>
       <c r="F31">
-        <v>0.0159739836512296</v>
+        <v>-0.02312608888504615</v>
       </c>
       <c r="G31">
-        <v>-0.0009734562932297026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.05360888208855952</v>
+      </c>
+      <c r="H31">
+        <v>-0.02985316793798628</v>
+      </c>
+      <c r="I31">
+        <v>-0.0066371610433764</v>
+      </c>
+      <c r="J31">
+        <v>0.03451263834508042</v>
+      </c>
+      <c r="K31">
+        <v>-0.02458117292039128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03337130500979606</v>
+        <v>-0.02403401920302135</v>
       </c>
       <c r="C32">
-        <v>-0.08202638190396089</v>
+        <v>-0.06146333907752188</v>
       </c>
       <c r="D32">
-        <v>-0.009422585450005221</v>
+        <v>-0.02003658561908982</v>
       </c>
       <c r="E32">
-        <v>-0.1606428240281634</v>
+        <v>0.05570379127377841</v>
       </c>
       <c r="F32">
-        <v>0.0502081183806128</v>
+        <v>0.1149416143883463</v>
       </c>
       <c r="G32">
-        <v>0.03383710532074934</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03280060675406173</v>
+      </c>
+      <c r="H32">
+        <v>-0.1818092776501612</v>
+      </c>
+      <c r="I32">
+        <v>0.2385061608573118</v>
+      </c>
+      <c r="J32">
+        <v>0.007264188739590321</v>
+      </c>
+      <c r="K32">
+        <v>0.1924019206249013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01535864791824458</v>
+        <v>-0.01655103120849172</v>
       </c>
       <c r="C33">
-        <v>-0.08843539882148575</v>
+        <v>-0.1064278271634538</v>
       </c>
       <c r="D33">
-        <v>0.0426134935673827</v>
+        <v>-0.04145802615505124</v>
       </c>
       <c r="E33">
-        <v>-0.0384772622210422</v>
+        <v>-0.01052727435788381</v>
       </c>
       <c r="F33">
-        <v>-0.008294714875838306</v>
+        <v>0.02167231272069189</v>
       </c>
       <c r="G33">
-        <v>0.02541590207136394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02574655397335526</v>
+      </c>
+      <c r="H33">
+        <v>-0.06165711555346282</v>
+      </c>
+      <c r="I33">
+        <v>0.01414698920013244</v>
+      </c>
+      <c r="J33">
+        <v>0.006176845693968569</v>
+      </c>
+      <c r="K33">
+        <v>-0.0244090225503132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.003137185928051344</v>
+        <v>-0.01614689960846501</v>
       </c>
       <c r="C34">
-        <v>-0.0515367121954258</v>
+        <v>-0.05203172288164926</v>
       </c>
       <c r="D34">
-        <v>0.01646665988220713</v>
+        <v>-0.01928963406819088</v>
       </c>
       <c r="E34">
-        <v>-0.0214578200388697</v>
+        <v>0.001997421729855152</v>
       </c>
       <c r="F34">
-        <v>-0.01508380982101757</v>
+        <v>-0.003450426718477913</v>
       </c>
       <c r="G34">
-        <v>0.03287564228271672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02167703848886746</v>
+      </c>
+      <c r="H34">
+        <v>-0.01182772083938846</v>
+      </c>
+      <c r="I34">
+        <v>-0.007100802793974367</v>
+      </c>
+      <c r="J34">
+        <v>0.01447125112881515</v>
+      </c>
+      <c r="K34">
+        <v>-0.03263673764714667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002994321351504757</v>
+        <v>-0.008450077533429384</v>
       </c>
       <c r="C35">
-        <v>-0.01420670436284713</v>
+        <v>-0.03978296709499992</v>
       </c>
       <c r="D35">
-        <v>0.001338491298778427</v>
+        <v>-0.01869201294822579</v>
       </c>
       <c r="E35">
-        <v>-0.02196791845158185</v>
+        <v>0.01105744016443864</v>
       </c>
       <c r="F35">
-        <v>-0.01195751791845311</v>
+        <v>0.01434276059404829</v>
       </c>
       <c r="G35">
-        <v>0.02107478333548789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04796176598433611</v>
+      </c>
+      <c r="H35">
+        <v>-0.1452564224733335</v>
+      </c>
+      <c r="I35">
+        <v>-0.0004465754762134275</v>
+      </c>
+      <c r="J35">
+        <v>0.1455957623442878</v>
+      </c>
+      <c r="K35">
+        <v>0.08925136184196951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.007681386910176643</v>
+        <v>-0.01508102224012878</v>
       </c>
       <c r="C36">
-        <v>-0.05184211292737156</v>
+        <v>-0.04829069235311745</v>
       </c>
       <c r="D36">
-        <v>0.04314293294888928</v>
+        <v>-0.04605884878437508</v>
       </c>
       <c r="E36">
-        <v>-0.02867312130423206</v>
+        <v>-0.001667326929173569</v>
       </c>
       <c r="F36">
-        <v>-0.005118752427963749</v>
+        <v>0.003217403172268104</v>
       </c>
       <c r="G36">
-        <v>0.01852714824065138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.006298855758240013</v>
+      </c>
+      <c r="H36">
+        <v>-0.07199924769050295</v>
+      </c>
+      <c r="I36">
+        <v>-0.01815666802919201</v>
+      </c>
+      <c r="J36">
+        <v>-0.03622807902909985</v>
+      </c>
+      <c r="K36">
+        <v>-0.05240852387264843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02680816723399483</v>
+        <v>-0.0126285352291312</v>
       </c>
       <c r="C38">
-        <v>-0.05003243620759787</v>
+        <v>-0.06151280274775673</v>
       </c>
       <c r="D38">
-        <v>0.02807693396907072</v>
+        <v>-0.03709758397780491</v>
       </c>
       <c r="E38">
-        <v>-0.02471928667978283</v>
+        <v>-0.03568602795573132</v>
       </c>
       <c r="F38">
-        <v>-0.02639969707916171</v>
+        <v>0.01109549280245323</v>
       </c>
       <c r="G38">
-        <v>-0.0006493765942306864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.004937328815461619</v>
+      </c>
+      <c r="H38">
+        <v>-0.08818926798729083</v>
+      </c>
+      <c r="I38">
+        <v>0.05311458166877573</v>
+      </c>
+      <c r="J38">
+        <v>0.03929026021321718</v>
+      </c>
+      <c r="K38">
+        <v>-0.05298868723739385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005839441602519236</v>
+        <v>-0.01654405966813805</v>
       </c>
       <c r="C39">
-        <v>-0.1347785927970322</v>
+        <v>-0.1290332618867205</v>
       </c>
       <c r="D39">
-        <v>0.0251066522932098</v>
+        <v>-0.04994265159679216</v>
       </c>
       <c r="E39">
-        <v>-0.0597918736870724</v>
+        <v>0.001622999824414475</v>
       </c>
       <c r="F39">
-        <v>-0.04846829604156663</v>
+        <v>0.01338704586287734</v>
       </c>
       <c r="G39">
-        <v>0.05003131914566231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04583665416376805</v>
+      </c>
+      <c r="H39">
+        <v>-0.04966755431594974</v>
+      </c>
+      <c r="I39">
+        <v>-0.06882721276533775</v>
+      </c>
+      <c r="J39">
+        <v>-0.01702630996771432</v>
+      </c>
+      <c r="K39">
+        <v>-0.03570148689458454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01192552000647901</v>
+        <v>-0.01528308208961327</v>
       </c>
       <c r="C40">
-        <v>-0.03434777461572266</v>
+        <v>-0.06108925244415542</v>
       </c>
       <c r="D40">
-        <v>0.02251297606943775</v>
+        <v>-0.03428173452731686</v>
       </c>
       <c r="E40">
-        <v>-0.1447319138748253</v>
+        <v>0.02372986880999752</v>
       </c>
       <c r="F40">
-        <v>-0.01326203678269073</v>
+        <v>0.07501387604301352</v>
       </c>
       <c r="G40">
-        <v>0.01831750686536829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1188619074194509</v>
+      </c>
+      <c r="H40">
+        <v>-0.04667736618143994</v>
+      </c>
+      <c r="I40">
+        <v>0.01967490469474685</v>
+      </c>
+      <c r="J40">
+        <v>0.2630697316274616</v>
+      </c>
+      <c r="K40">
+        <v>-0.1145394555423182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.007400274679589753</v>
+        <v>-0.02068047496171729</v>
       </c>
       <c r="C41">
-        <v>-0.01867222476927059</v>
+        <v>-0.04712906200397784</v>
       </c>
       <c r="D41">
-        <v>0.004326059826451118</v>
+        <v>-0.01527449884355938</v>
       </c>
       <c r="E41">
-        <v>0.0277507343699934</v>
+        <v>-0.002830795362343774</v>
       </c>
       <c r="F41">
-        <v>0.01184524763342429</v>
+        <v>-0.0249190114974902</v>
       </c>
       <c r="G41">
-        <v>-0.02176665314621676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.001994375125815084</v>
+      </c>
+      <c r="H41">
+        <v>-0.02910401233773118</v>
+      </c>
+      <c r="I41">
+        <v>0.03368566638744607</v>
+      </c>
+      <c r="J41">
+        <v>0.05605841390345526</v>
+      </c>
+      <c r="K41">
+        <v>-0.001603173793344279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002572460576619775</v>
+        <v>-0.01673261964296146</v>
       </c>
       <c r="C43">
-        <v>-0.01883798866367758</v>
+        <v>-0.04386562406720156</v>
       </c>
       <c r="D43">
-        <v>0.009718899898622712</v>
+        <v>-0.02841966688170689</v>
       </c>
       <c r="E43">
-        <v>-0.002154291558318494</v>
+        <v>-0.01578313474469474</v>
       </c>
       <c r="F43">
-        <v>-0.01618065691191706</v>
+        <v>-0.009812854532133113</v>
       </c>
       <c r="G43">
-        <v>-0.01458835165101317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005111173117356676</v>
+      </c>
+      <c r="H43">
+        <v>-0.0463174880704543</v>
+      </c>
+      <c r="I43">
+        <v>0.004641150050858924</v>
+      </c>
+      <c r="J43">
+        <v>0.04418655168525584</v>
+      </c>
+      <c r="K43">
+        <v>0.00445554793651029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02435188076387573</v>
+        <v>-0.01068169160588967</v>
       </c>
       <c r="C44">
-        <v>-0.08389257941075028</v>
+        <v>-0.09119019602775208</v>
       </c>
       <c r="D44">
-        <v>0.0004536568935783277</v>
+        <v>-0.04992824242542495</v>
       </c>
       <c r="E44">
-        <v>-0.09416997575011106</v>
+        <v>-0.03073540329921087</v>
       </c>
       <c r="F44">
-        <v>-0.03772359460553274</v>
+        <v>0.0730083943323573</v>
       </c>
       <c r="G44">
-        <v>-0.007889017570337631</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04095292765606539</v>
+      </c>
+      <c r="H44">
+        <v>-0.05323084257186933</v>
+      </c>
+      <c r="I44">
+        <v>-0.05231060683466974</v>
+      </c>
+      <c r="J44">
+        <v>-0.06220923591997399</v>
+      </c>
+      <c r="K44">
+        <v>0.01208001316969053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.001810044394984024</v>
+        <v>-0.002370828577422725</v>
       </c>
       <c r="C46">
-        <v>-0.06390373652357177</v>
+        <v>-0.0630836325315374</v>
       </c>
       <c r="D46">
-        <v>0.03226757137175826</v>
+        <v>-0.0272227903253763</v>
       </c>
       <c r="E46">
-        <v>-0.06031870501014674</v>
+        <v>0.009237763463316138</v>
       </c>
       <c r="F46">
-        <v>-0.02554419890932857</v>
+        <v>-0.001931081852382685</v>
       </c>
       <c r="G46">
-        <v>0.04593462090033615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04330862211270869</v>
+      </c>
+      <c r="H46">
+        <v>-0.1061020691116863</v>
+      </c>
+      <c r="I46">
+        <v>-0.005867950906134752</v>
+      </c>
+      <c r="J46">
+        <v>0.07856647466501497</v>
+      </c>
+      <c r="K46">
+        <v>0.04044534828706146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.001881567993822642</v>
+        <v>-0.01973923174871059</v>
       </c>
       <c r="C47">
-        <v>-0.1086654020313147</v>
+        <v>-0.09242964800544541</v>
       </c>
       <c r="D47">
-        <v>0.03702019429653862</v>
+        <v>-0.04259526336076249</v>
       </c>
       <c r="E47">
-        <v>0.0636091263287414</v>
+        <v>0.01353100004336911</v>
       </c>
       <c r="F47">
-        <v>0.03432418314158094</v>
+        <v>-0.03690397514236119</v>
       </c>
       <c r="G47">
-        <v>0.0320024215946428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02276480812740368</v>
+      </c>
+      <c r="H47">
+        <v>-0.06804268457420494</v>
+      </c>
+      <c r="I47">
+        <v>0.03098533030324362</v>
+      </c>
+      <c r="J47">
+        <v>0.03097841938298945</v>
+      </c>
+      <c r="K47">
+        <v>-0.02233366806905233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01229931227739581</v>
+        <v>-0.02158825966126007</v>
       </c>
       <c r="C48">
-        <v>-0.05436188479672079</v>
+        <v>-0.0555432393715667</v>
       </c>
       <c r="D48">
-        <v>0.05651817459739163</v>
+        <v>-0.05397354870287547</v>
       </c>
       <c r="E48">
-        <v>-0.01807073474321795</v>
+        <v>-0.006765178766078409</v>
       </c>
       <c r="F48">
-        <v>-0.00711761347405328</v>
+        <v>-0.002067946670798488</v>
       </c>
       <c r="G48">
-        <v>0.005965577250705003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.003962588935521198</v>
+      </c>
+      <c r="H48">
+        <v>-0.1017123888788493</v>
+      </c>
+      <c r="I48">
+        <v>-0.03074770041479706</v>
+      </c>
+      <c r="J48">
+        <v>-0.08085137297804462</v>
+      </c>
+      <c r="K48">
+        <v>-0.06703964918599441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005584921022129861</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0230243728552303</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.00189868384024891</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.004358441928401638</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03085926036398653</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03921701906620436</v>
+      </c>
+      <c r="H49">
+        <v>0.0248620100191536</v>
+      </c>
+      <c r="I49">
+        <v>-0.04611723773663156</v>
+      </c>
+      <c r="J49">
+        <v>-0.02724637045995686</v>
+      </c>
+      <c r="K49">
+        <v>-0.04266786618581728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001215142801262207</v>
+        <v>-0.01208300086099912</v>
       </c>
       <c r="C50">
-        <v>-0.08897063788580109</v>
+        <v>-0.08622612074471056</v>
       </c>
       <c r="D50">
-        <v>0.02555710729032737</v>
+        <v>-0.02678699218469183</v>
       </c>
       <c r="E50">
-        <v>0.01652702394550423</v>
+        <v>-0.002443670599512789</v>
       </c>
       <c r="F50">
-        <v>0.006974045048875226</v>
+        <v>-0.009067393599765647</v>
       </c>
       <c r="G50">
-        <v>-0.01832553688200874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03454586779510027</v>
+      </c>
+      <c r="H50">
+        <v>-0.05955014843933789</v>
+      </c>
+      <c r="I50">
+        <v>0.04354841553158113</v>
+      </c>
+      <c r="J50">
+        <v>0.02572092474971422</v>
+      </c>
+      <c r="K50">
+        <v>-0.007071331603614708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.003304026373006405</v>
+        <v>0.005792347512431145</v>
       </c>
       <c r="C51">
-        <v>-0.06990740967033632</v>
+        <v>-0.03749462164419005</v>
       </c>
       <c r="D51">
-        <v>-0.01338103856994125</v>
+        <v>-0.01952094875721696</v>
       </c>
       <c r="E51">
-        <v>-0.09273794284209576</v>
+        <v>0.004363182743738182</v>
       </c>
       <c r="F51">
-        <v>-0.006841327915668894</v>
+        <v>0.04071068641625614</v>
       </c>
       <c r="G51">
-        <v>-0.02601628400523477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01718223445112498</v>
+      </c>
+      <c r="H51">
+        <v>-0.09685606872827114</v>
+      </c>
+      <c r="I51">
+        <v>-0.02024774878416591</v>
+      </c>
+      <c r="J51">
+        <v>-0.1135630066269329</v>
+      </c>
+      <c r="K51">
+        <v>-0.01466616319940932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04815058086914187</v>
+        <v>-0.05629883111814402</v>
       </c>
       <c r="C53">
-        <v>-0.1390162967430042</v>
+        <v>-0.1347770447310359</v>
       </c>
       <c r="D53">
-        <v>0.05947045695518036</v>
+        <v>-0.05038702606615465</v>
       </c>
       <c r="E53">
-        <v>0.1244887736947727</v>
+        <v>0.01500392185066712</v>
       </c>
       <c r="F53">
-        <v>-0.02049324279085789</v>
+        <v>-0.08162289543438071</v>
       </c>
       <c r="G53">
-        <v>0.006230337815208924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0627001347808179</v>
+      </c>
+      <c r="H53">
+        <v>0.02848257503223735</v>
+      </c>
+      <c r="I53">
+        <v>0.04235832934717885</v>
+      </c>
+      <c r="J53">
+        <v>0.01361359027026651</v>
+      </c>
+      <c r="K53">
+        <v>-0.05658795223584059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01370583466382054</v>
+        <v>-0.01743240056090977</v>
       </c>
       <c r="C54">
-        <v>-0.07313318191588562</v>
+        <v>-0.07807272712180555</v>
       </c>
       <c r="D54">
-        <v>0.006114270732798219</v>
+        <v>-0.009321401148912948</v>
       </c>
       <c r="E54">
-        <v>0.005695621679215236</v>
+        <v>0.00526478277485817</v>
       </c>
       <c r="F54">
-        <v>-0.02539121562913133</v>
+        <v>-0.01481242406941925</v>
       </c>
       <c r="G54">
-        <v>0.01805606327527729</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01861241729786376</v>
+      </c>
+      <c r="H54">
+        <v>-0.05885088521524016</v>
+      </c>
+      <c r="I54">
+        <v>-0.01887476986033112</v>
+      </c>
+      <c r="J54">
+        <v>0.01360553701324073</v>
+      </c>
+      <c r="K54">
+        <v>0.004897470269676584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03094449268714103</v>
+        <v>-0.0319627378983256</v>
       </c>
       <c r="C55">
-        <v>-0.09827245466548165</v>
+        <v>-0.09120038412201947</v>
       </c>
       <c r="D55">
-        <v>0.05717197875488255</v>
+        <v>-0.04990614290554975</v>
       </c>
       <c r="E55">
-        <v>0.06544517757379814</v>
+        <v>0.0050471639401928</v>
       </c>
       <c r="F55">
-        <v>0.00285866678498571</v>
+        <v>-0.06373918999355821</v>
       </c>
       <c r="G55">
-        <v>0.02819906367405276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03097047160133664</v>
+      </c>
+      <c r="H55">
+        <v>0.0185236502498673</v>
+      </c>
+      <c r="I55">
+        <v>-0.01057123237586129</v>
+      </c>
+      <c r="J55">
+        <v>0.001275518084782523</v>
+      </c>
+      <c r="K55">
+        <v>-0.03872761394669948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03746091306412893</v>
+        <v>-0.04304354130997314</v>
       </c>
       <c r="C56">
-        <v>-0.1858031567206055</v>
+        <v>-0.1637538386660294</v>
       </c>
       <c r="D56">
-        <v>0.05927531281154327</v>
+        <v>-0.07503450896645904</v>
       </c>
       <c r="E56">
-        <v>0.1578377510598347</v>
+        <v>0.03958036495259083</v>
       </c>
       <c r="F56">
-        <v>0.0359694327601237</v>
+        <v>-0.1198805086703682</v>
       </c>
       <c r="G56">
-        <v>-0.00150952223288431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1319289787167037</v>
+      </c>
+      <c r="H56">
+        <v>0.0432600948328176</v>
+      </c>
+      <c r="I56">
+        <v>0.02703636045905067</v>
+      </c>
+      <c r="J56">
+        <v>-0.02010698288223608</v>
+      </c>
+      <c r="K56">
+        <v>-0.0420229661196167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03273228562365383</v>
+        <v>-0.01884792072854371</v>
       </c>
       <c r="C58">
-        <v>-0.2570328619418371</v>
+        <v>-0.1794727253548193</v>
       </c>
       <c r="D58">
-        <v>-0.1080378218655135</v>
+        <v>-0.02923877459795111</v>
       </c>
       <c r="E58">
-        <v>-0.2535287249932638</v>
+        <v>-0.07227412467902644</v>
       </c>
       <c r="F58">
-        <v>-0.005596135246209726</v>
+        <v>0.3121743589081175</v>
       </c>
       <c r="G58">
-        <v>-0.3463425772106267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.146210517190407</v>
+      </c>
+      <c r="H58">
+        <v>-0.03729980594043601</v>
+      </c>
+      <c r="I58">
+        <v>0.01612744869897392</v>
+      </c>
+      <c r="J58">
+        <v>-0.412815093991616</v>
+      </c>
+      <c r="K58">
+        <v>0.203326573324186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2817368345552901</v>
+        <v>-0.2872520887748933</v>
       </c>
       <c r="C59">
-        <v>0.02140261540734565</v>
+        <v>0.04459275076462182</v>
       </c>
       <c r="D59">
-        <v>-0.04544922047865538</v>
+        <v>0.007731829598185106</v>
       </c>
       <c r="E59">
-        <v>-0.02774833696749763</v>
+        <v>0.01735702351403915</v>
       </c>
       <c r="F59">
-        <v>0.05041806193173506</v>
+        <v>0.04311899047254324</v>
       </c>
       <c r="G59">
-        <v>0.03656801897790102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004911996528449421</v>
+      </c>
+      <c r="H59">
+        <v>0.0248536052361096</v>
+      </c>
+      <c r="I59">
+        <v>0.0327523356175548</v>
+      </c>
+      <c r="J59">
+        <v>0.02327186727799214</v>
+      </c>
+      <c r="K59">
+        <v>-0.01767002343023641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1271677295212413</v>
+        <v>-0.1515710224400312</v>
       </c>
       <c r="C60">
-        <v>-0.1333010815567971</v>
+        <v>-0.1509778991745122</v>
       </c>
       <c r="D60">
-        <v>0.03736079568424644</v>
+        <v>-0.03205980655068656</v>
       </c>
       <c r="E60">
-        <v>-0.04488426398404905</v>
+        <v>0.06149298975614289</v>
       </c>
       <c r="F60">
-        <v>-0.1292704650625964</v>
+        <v>-0.05579827181203895</v>
       </c>
       <c r="G60">
-        <v>0.3160778836234656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2846627261835051</v>
+      </c>
+      <c r="H60">
+        <v>0.2321270533727431</v>
+      </c>
+      <c r="I60">
+        <v>-0.02168403307054411</v>
+      </c>
+      <c r="J60">
+        <v>-0.01847592863576918</v>
+      </c>
+      <c r="K60">
+        <v>0.07181917961740304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.005810479528252784</v>
+        <v>-0.01898246401214658</v>
       </c>
       <c r="C61">
-        <v>-0.09387562316192692</v>
+        <v>-0.1006140795280575</v>
       </c>
       <c r="D61">
-        <v>0.04219169883354197</v>
+        <v>-0.04897488744240841</v>
       </c>
       <c r="E61">
-        <v>-0.01847134707782334</v>
+        <v>0.008815005448009694</v>
       </c>
       <c r="F61">
-        <v>-0.04287460673912599</v>
+        <v>-0.02309296667694033</v>
       </c>
       <c r="G61">
-        <v>0.07488282277438665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04286139549923632</v>
+      </c>
+      <c r="H61">
+        <v>-0.05794280597720153</v>
+      </c>
+      <c r="I61">
+        <v>-0.03455329892135348</v>
+      </c>
+      <c r="J61">
+        <v>0.01757588425201601</v>
+      </c>
+      <c r="K61">
+        <v>-0.03627849018703402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002464380764549442</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.00809796812090458</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001404966161919802</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.008754331784671098</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.0141227239170428</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02012873482900483</v>
+      </c>
+      <c r="H62">
+        <v>-0.0060491685236358</v>
+      </c>
+      <c r="I62">
+        <v>-0.001862036547116348</v>
+      </c>
+      <c r="J62">
+        <v>0.005475521594253629</v>
+      </c>
+      <c r="K62">
+        <v>-0.01823051797850512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.005496715000789703</v>
+        <v>-0.02483508424408643</v>
       </c>
       <c r="C63">
-        <v>-0.06897091675990685</v>
+        <v>-0.07097251306769431</v>
       </c>
       <c r="D63">
-        <v>0.02533160253929546</v>
+        <v>-0.05545291081811625</v>
       </c>
       <c r="E63">
-        <v>-0.005706609626515077</v>
+        <v>0.005682837492738426</v>
       </c>
       <c r="F63">
-        <v>-0.02843680521019693</v>
+        <v>-0.01438716265309486</v>
       </c>
       <c r="G63">
-        <v>0.01934498411574443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01478712559222211</v>
+      </c>
+      <c r="H63">
+        <v>-0.06378913565028495</v>
+      </c>
+      <c r="I63">
+        <v>-0.01341722131402988</v>
+      </c>
+      <c r="J63">
+        <v>0.01626173826476045</v>
+      </c>
+      <c r="K63">
+        <v>-0.059994036249422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002841510425254796</v>
+        <v>-0.01402167960690251</v>
       </c>
       <c r="C64">
-        <v>-0.09818966792246386</v>
+        <v>-0.09482136322919037</v>
       </c>
       <c r="D64">
-        <v>0.06634649714378037</v>
+        <v>-0.03265444855924664</v>
       </c>
       <c r="E64">
-        <v>-0.03823223247023255</v>
+        <v>-0.03793193774044339</v>
       </c>
       <c r="F64">
-        <v>-0.02546863686679448</v>
+        <v>0.03433115972738553</v>
       </c>
       <c r="G64">
-        <v>0.02583147235774034</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04599350784363158</v>
+      </c>
+      <c r="H64">
+        <v>-0.0435824021738802</v>
+      </c>
+      <c r="I64">
+        <v>-0.027493465667965</v>
+      </c>
+      <c r="J64">
+        <v>0.01913400487815063</v>
+      </c>
+      <c r="K64">
+        <v>-0.1197076607570192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02416072776862354</v>
+        <v>-0.03192792013684805</v>
       </c>
       <c r="C65">
-        <v>-0.06408775985674571</v>
+        <v>-0.08728074947537348</v>
       </c>
       <c r="D65">
-        <v>0.01864494603018838</v>
+        <v>-0.01203343243458934</v>
       </c>
       <c r="E65">
-        <v>-0.08381072083003216</v>
+        <v>-0.02794210880286813</v>
       </c>
       <c r="F65">
-        <v>-0.04030824197766867</v>
+        <v>0.02984199537872208</v>
       </c>
       <c r="G65">
-        <v>0.04037183108582554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.118412965076861</v>
+      </c>
+      <c r="H65">
+        <v>0.005401065322798486</v>
+      </c>
+      <c r="I65">
+        <v>-0.07711941072207969</v>
+      </c>
+      <c r="J65">
+        <v>-0.0809431839106841</v>
+      </c>
+      <c r="K65">
+        <v>0.02246999361611812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.007603919853983446</v>
+        <v>-0.01138255969812502</v>
       </c>
       <c r="C66">
-        <v>-0.1626756157446731</v>
+        <v>-0.1622022825009633</v>
       </c>
       <c r="D66">
-        <v>0.001551278143071297</v>
+        <v>-0.04028377103465697</v>
       </c>
       <c r="E66">
-        <v>-0.1064835821111502</v>
+        <v>0.009329881070420281</v>
       </c>
       <c r="F66">
-        <v>-0.03329705074086065</v>
+        <v>0.02586319421248006</v>
       </c>
       <c r="G66">
-        <v>0.07148758779390266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04180018701850767</v>
+      </c>
+      <c r="H66">
+        <v>-0.06072949804641089</v>
+      </c>
+      <c r="I66">
+        <v>-0.05519170511681112</v>
+      </c>
+      <c r="J66">
+        <v>-0.01573860004978054</v>
+      </c>
+      <c r="K66">
+        <v>-0.03570265911252826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.025463645719758</v>
+        <v>-0.0212291837095408</v>
       </c>
       <c r="C67">
-        <v>-0.03477998972981891</v>
+        <v>-0.05268762107478852</v>
       </c>
       <c r="D67">
-        <v>0.05255885193797979</v>
+        <v>-0.03952106411573131</v>
       </c>
       <c r="E67">
-        <v>0.01827637238906812</v>
+        <v>-0.02622180487747182</v>
       </c>
       <c r="F67">
-        <v>-0.03442277174672424</v>
+        <v>-0.02395735394743283</v>
       </c>
       <c r="G67">
-        <v>0.01782981063114567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02816861337199054</v>
+      </c>
+      <c r="H67">
+        <v>-0.06269489971713345</v>
+      </c>
+      <c r="I67">
+        <v>0.04852393359204145</v>
+      </c>
+      <c r="J67">
+        <v>0.05122497381265435</v>
+      </c>
+      <c r="K67">
+        <v>-0.02958135226918805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.280902263812024</v>
+        <v>-0.2946689066753796</v>
       </c>
       <c r="C68">
-        <v>0.03812729325534746</v>
+        <v>0.0598526155872764</v>
       </c>
       <c r="D68">
-        <v>-0.02220118869473175</v>
+        <v>0.0208116928308458</v>
       </c>
       <c r="E68">
-        <v>0.00718252065951343</v>
+        <v>0.004420647935748889</v>
       </c>
       <c r="F68">
-        <v>0.02610023872958597</v>
+        <v>0.01771011812974822</v>
       </c>
       <c r="G68">
-        <v>-0.0390278671388038</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.04397875222501673</v>
+      </c>
+      <c r="H68">
+        <v>-0.0292447283023547</v>
+      </c>
+      <c r="I68">
+        <v>0.03584111731380456</v>
+      </c>
+      <c r="J68">
+        <v>-0.008173372269195886</v>
+      </c>
+      <c r="K68">
+        <v>-0.06443001891272462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007485522815962264</v>
+        <v>-0.007039631163274231</v>
       </c>
       <c r="C69">
-        <v>-0.09653943160826435</v>
+        <v>-0.07000059091124915</v>
       </c>
       <c r="D69">
-        <v>0.0597594947775817</v>
+        <v>-0.02944844313039123</v>
       </c>
       <c r="E69">
-        <v>0.04783661539098536</v>
+        <v>0.003880619225509049</v>
       </c>
       <c r="F69">
-        <v>0.01008025615854311</v>
+        <v>-0.02056863803386114</v>
       </c>
       <c r="G69">
-        <v>-0.01520016024209197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.008611330754826422</v>
+      </c>
+      <c r="H69">
+        <v>-0.05350761755151243</v>
+      </c>
+      <c r="I69">
+        <v>0.02198486674611958</v>
+      </c>
+      <c r="J69">
+        <v>-0.003076800227365625</v>
+      </c>
+      <c r="K69">
+        <v>-0.02752030250776378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2811585326627916</v>
+        <v>-0.2764212148765502</v>
       </c>
       <c r="C71">
-        <v>0.0547679130996228</v>
+        <v>0.07260161575815431</v>
       </c>
       <c r="D71">
-        <v>-0.02946592675998309</v>
+        <v>0.01878780107490215</v>
       </c>
       <c r="E71">
-        <v>-0.01410362694360028</v>
+        <v>-0.03303887906635813</v>
       </c>
       <c r="F71">
-        <v>-0.005168098093883289</v>
+        <v>0.04298291907466945</v>
       </c>
       <c r="G71">
-        <v>-0.03622253780207388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02603944352889752</v>
+      </c>
+      <c r="H71">
+        <v>-0.05141654757529281</v>
+      </c>
+      <c r="I71">
+        <v>0.122576898507266</v>
+      </c>
+      <c r="J71">
+        <v>-0.04673601875212478</v>
+      </c>
+      <c r="K71">
+        <v>-0.04977883882489707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03972960018929968</v>
+        <v>-0.05439583153406371</v>
       </c>
       <c r="C72">
-        <v>-0.1451055317461027</v>
+        <v>-0.1364312587088419</v>
       </c>
       <c r="D72">
-        <v>0.03884919891793656</v>
+        <v>-0.03498750499614615</v>
       </c>
       <c r="E72">
-        <v>-0.08833316620083284</v>
+        <v>-0.0004831749669336787</v>
       </c>
       <c r="F72">
-        <v>-0.09723638086322942</v>
+        <v>-0.02028308114661413</v>
       </c>
       <c r="G72">
-        <v>0.05513387510477793</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04848507557224847</v>
+      </c>
+      <c r="H72">
+        <v>-0.01975134495438108</v>
+      </c>
+      <c r="I72">
+        <v>-0.1295247521111185</v>
+      </c>
+      <c r="J72">
+        <v>-0.06504224386650893</v>
+      </c>
+      <c r="K72">
+        <v>-0.0008728038685970638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08063312964058823</v>
+        <v>-0.1492755412791604</v>
       </c>
       <c r="C73">
-        <v>-0.1255011202240451</v>
+        <v>-0.1923279156170206</v>
       </c>
       <c r="D73">
-        <v>0.09027382642137212</v>
+        <v>-0.06553537888476442</v>
       </c>
       <c r="E73">
-        <v>-0.0122280124590716</v>
+        <v>0.05766929337672122</v>
       </c>
       <c r="F73">
-        <v>-0.2136783914963086</v>
+        <v>-0.1589579305355485</v>
       </c>
       <c r="G73">
-        <v>0.4218827866265272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4301738319984817</v>
+      </c>
+      <c r="H73">
+        <v>0.3008572452530234</v>
+      </c>
+      <c r="I73">
+        <v>0.08294071208462089</v>
+      </c>
+      <c r="J73">
+        <v>-0.08446268693914551</v>
+      </c>
+      <c r="K73">
+        <v>0.08377232351663534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01690134114297913</v>
+        <v>-0.03688253934712707</v>
       </c>
       <c r="C74">
-        <v>-0.1127392881571663</v>
+        <v>-0.110558090615577</v>
       </c>
       <c r="D74">
-        <v>0.06639925897472763</v>
+        <v>-0.04286350044877773</v>
       </c>
       <c r="E74">
-        <v>0.09333329218406142</v>
+        <v>0.007334890238808636</v>
       </c>
       <c r="F74">
-        <v>0.02005266474922737</v>
+        <v>-0.06321730097698336</v>
       </c>
       <c r="G74">
-        <v>0.01139657614463446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05061631648665308</v>
+      </c>
+      <c r="H74">
+        <v>0.008239827929122262</v>
+      </c>
+      <c r="I74">
+        <v>-0.004122850050891187</v>
+      </c>
+      <c r="J74">
+        <v>-0.02316529146427676</v>
+      </c>
+      <c r="K74">
+        <v>-0.06794212548035425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05717555494976622</v>
+        <v>-0.05872409706879387</v>
       </c>
       <c r="C75">
-        <v>-0.1768233588843058</v>
+        <v>-0.1782033816095496</v>
       </c>
       <c r="D75">
-        <v>0.09497396199729947</v>
+        <v>-0.0820377851683311</v>
       </c>
       <c r="E75">
-        <v>0.2342849143153592</v>
+        <v>-0.03687310881984623</v>
       </c>
       <c r="F75">
-        <v>0.03291945654853556</v>
+        <v>-0.1695923569972592</v>
       </c>
       <c r="G75">
-        <v>-0.07164831444337172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.18771697345937</v>
+      </c>
+      <c r="H75">
+        <v>0.04453720608151901</v>
+      </c>
+      <c r="I75">
+        <v>0.1216971757387922</v>
+      </c>
+      <c r="J75">
+        <v>0.06376386296767367</v>
+      </c>
+      <c r="K75">
+        <v>-0.09339514846429012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03210672976570249</v>
+        <v>-0.04086201285099639</v>
       </c>
       <c r="C76">
-        <v>-0.1231041117048428</v>
+        <v>-0.129125468899818</v>
       </c>
       <c r="D76">
-        <v>0.0612272573436153</v>
+        <v>-0.06926044138475146</v>
       </c>
       <c r="E76">
-        <v>0.09649340814294008</v>
+        <v>0.00854941317190357</v>
       </c>
       <c r="F76">
-        <v>0.01286769663824987</v>
+        <v>-0.09564430214674119</v>
       </c>
       <c r="G76">
-        <v>0.04001781715331999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.0521407422487587</v>
+      </c>
+      <c r="H76">
+        <v>0.01964899944543422</v>
+      </c>
+      <c r="I76">
+        <v>-0.0003103969701418544</v>
+      </c>
+      <c r="J76">
+        <v>0.03205573376075319</v>
+      </c>
+      <c r="K76">
+        <v>-0.1289511654828408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.06745029884367686</v>
+        <v>-0.04235158166100546</v>
       </c>
       <c r="C77">
-        <v>-0.2548480088129146</v>
+        <v>-0.3579428422827294</v>
       </c>
       <c r="D77">
-        <v>-0.8601610683717854</v>
+        <v>0.9173945235030322</v>
       </c>
       <c r="E77">
-        <v>0.3000029466579747</v>
+        <v>-0.0352470400626006</v>
       </c>
       <c r="F77">
-        <v>-0.164247349364971</v>
+        <v>-0.09121403994617182</v>
       </c>
       <c r="G77">
-        <v>0.06448501363790145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02011078618087396</v>
+      </c>
+      <c r="H77">
+        <v>-0.05773133022707159</v>
+      </c>
+      <c r="I77">
+        <v>0.002503453944234243</v>
+      </c>
+      <c r="J77">
+        <v>0.00350332883453711</v>
+      </c>
+      <c r="K77">
+        <v>-0.014854206083055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03663296515438485</v>
+        <v>-0.03198678070636872</v>
       </c>
       <c r="C78">
-        <v>-0.1444921016622458</v>
+        <v>-0.1125909816982749</v>
       </c>
       <c r="D78">
-        <v>0.07199703807998452</v>
+        <v>-0.09078610889961485</v>
       </c>
       <c r="E78">
-        <v>-0.05690110173299998</v>
+        <v>0.03833079110619918</v>
       </c>
       <c r="F78">
-        <v>0.1465499658160164</v>
+        <v>-0.001892850985725458</v>
       </c>
       <c r="G78">
-        <v>0.01327448454678707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.08825861561342364</v>
+      </c>
+      <c r="H78">
+        <v>-0.04620193869815371</v>
+      </c>
+      <c r="I78">
+        <v>-0.09955886452705201</v>
+      </c>
+      <c r="J78">
+        <v>-0.4291437268723801</v>
+      </c>
+      <c r="K78">
+        <v>0.03562419571977431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.03047329420636691</v>
+        <v>-0.05186130953192427</v>
       </c>
       <c r="C79">
-        <v>-0.217252311876752</v>
+        <v>-0.1580755058440734</v>
       </c>
       <c r="D79">
-        <v>0.1193256410001091</v>
+        <v>-0.06829307526940591</v>
       </c>
       <c r="E79">
-        <v>0.1983350412888721</v>
+        <v>0.02706209993707706</v>
       </c>
       <c r="F79">
-        <v>0.1303937309079349</v>
+        <v>-0.119109479046723</v>
       </c>
       <c r="G79">
-        <v>-0.05476829347765401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2258282252820964</v>
+      </c>
+      <c r="H79">
+        <v>0.01653293430654654</v>
+      </c>
+      <c r="I79">
+        <v>0.08273770559679572</v>
+      </c>
+      <c r="J79">
+        <v>-0.06403090068319826</v>
+      </c>
+      <c r="K79">
+        <v>-0.06308196134699591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01175365431507926</v>
+        <v>-0.01905560010687925</v>
       </c>
       <c r="C80">
-        <v>-0.05268033604598311</v>
+        <v>-0.05460317540623632</v>
       </c>
       <c r="D80">
-        <v>0.04720268763237312</v>
+        <v>-0.03895368602830784</v>
       </c>
       <c r="E80">
-        <v>0.01264784126652623</v>
+        <v>0.04667923772768226</v>
       </c>
       <c r="F80">
-        <v>0.01971259588399618</v>
+        <v>0.03489084785994054</v>
       </c>
       <c r="G80">
-        <v>0.01572078009778164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04353151427239777</v>
+      </c>
+      <c r="H80">
+        <v>0.03235406610808525</v>
+      </c>
+      <c r="I80">
+        <v>0.05455081157036475</v>
+      </c>
+      <c r="J80">
+        <v>0.08047943599640896</v>
+      </c>
+      <c r="K80">
+        <v>-0.03153292012636902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.009471035452256433</v>
+        <v>-0.0146983215245368</v>
       </c>
       <c r="C81">
-        <v>-0.1131132652538073</v>
+        <v>-0.1088273996354129</v>
       </c>
       <c r="D81">
-        <v>0.08434729450957795</v>
+        <v>-0.05285180439925094</v>
       </c>
       <c r="E81">
-        <v>0.1493703709921603</v>
+        <v>0.01439201711897141</v>
       </c>
       <c r="F81">
-        <v>0.05023019628141981</v>
+        <v>-0.07342762789925261</v>
       </c>
       <c r="G81">
-        <v>-0.01444729357129631</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1178929303981354</v>
+      </c>
+      <c r="H81">
+        <v>-0.0412234992635148</v>
+      </c>
+      <c r="I81">
+        <v>0.05209978757764469</v>
+      </c>
+      <c r="J81">
+        <v>0.02048253898996886</v>
+      </c>
+      <c r="K81">
+        <v>-0.09564934052848169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.03540426652007159</v>
+        <v>-0.04551640357551982</v>
       </c>
       <c r="C82">
-        <v>-0.1127275264704183</v>
+        <v>-0.113509221147319</v>
       </c>
       <c r="D82">
-        <v>0.08070892396241749</v>
+        <v>-0.06519616949739367</v>
       </c>
       <c r="E82">
-        <v>0.1139023200058956</v>
+        <v>0.01216741699065973</v>
       </c>
       <c r="F82">
-        <v>-0.004230511587584077</v>
+        <v>-0.0885074702350462</v>
       </c>
       <c r="G82">
-        <v>0.02265120049234168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07451967510984205</v>
+      </c>
+      <c r="H82">
+        <v>-0.005419821859235718</v>
+      </c>
+      <c r="I82">
+        <v>0.01811258925069938</v>
+      </c>
+      <c r="J82">
+        <v>0.01107241547580716</v>
+      </c>
+      <c r="K82">
+        <v>-0.1033634986187758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004053662108046988</v>
+        <v>0.002901555664154835</v>
       </c>
       <c r="C83">
-        <v>-0.02664871666239994</v>
+        <v>0.004050468194287494</v>
       </c>
       <c r="D83">
-        <v>-0.1918956292261451</v>
+        <v>0.06352418726852374</v>
       </c>
       <c r="E83">
-        <v>-0.1035087621664406</v>
+        <v>0.940158882435598</v>
       </c>
       <c r="F83">
-        <v>0.8345303536351226</v>
+        <v>0.1852907972424004</v>
       </c>
       <c r="G83">
-        <v>0.3709223355595074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.09803185845841361</v>
+      </c>
+      <c r="H83">
+        <v>0.0749130348488625</v>
+      </c>
+      <c r="I83">
+        <v>-0.05767676865237697</v>
+      </c>
+      <c r="J83">
+        <v>-0.001155398778349141</v>
+      </c>
+      <c r="K83">
+        <v>-0.09589378575291573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0003107355832188586</v>
+        <v>0.00189561930407237</v>
       </c>
       <c r="C84">
-        <v>-0.05151616550091715</v>
+        <v>-0.044815607393695</v>
       </c>
       <c r="D84">
-        <v>0.01810529187757151</v>
+        <v>-0.06029935279255211</v>
       </c>
       <c r="E84">
-        <v>-0.09614854546137136</v>
+        <v>-0.0386038725364965</v>
       </c>
       <c r="F84">
-        <v>-0.01551358030605022</v>
+        <v>0.08761078250246235</v>
       </c>
       <c r="G84">
-        <v>-0.1361050073758938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04165183302255224</v>
+      </c>
+      <c r="H84">
+        <v>-0.06832792877323904</v>
+      </c>
+      <c r="I84">
+        <v>-0.1119568105345278</v>
+      </c>
+      <c r="J84">
+        <v>0.05276134098126686</v>
+      </c>
+      <c r="K84">
+        <v>-0.07869405412619651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.02243791088482194</v>
+        <v>-0.02728996715073215</v>
       </c>
       <c r="C85">
-        <v>-0.153698520132533</v>
+        <v>-0.1247615873359301</v>
       </c>
       <c r="D85">
-        <v>0.08845157864903123</v>
+        <v>-0.078715223946838</v>
       </c>
       <c r="E85">
-        <v>0.1847775908580232</v>
+        <v>0.01564135062975294</v>
       </c>
       <c r="F85">
-        <v>0.08426115492154244</v>
+        <v>-0.1648434920487177</v>
       </c>
       <c r="G85">
-        <v>-0.04538136245039786</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1611882907867966</v>
+      </c>
+      <c r="H85">
+        <v>0.04081478052038811</v>
+      </c>
+      <c r="I85">
+        <v>0.07806197757769395</v>
+      </c>
+      <c r="J85">
+        <v>0.02685987865957757</v>
+      </c>
+      <c r="K85">
+        <v>-0.1872430716445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01904597204284746</v>
+        <v>-0.01639494074165395</v>
       </c>
       <c r="C86">
-        <v>-0.06753151714147014</v>
+        <v>-0.08263828764098598</v>
       </c>
       <c r="D86">
-        <v>-0.03917362866705407</v>
+        <v>-0.02210644594649274</v>
       </c>
       <c r="E86">
-        <v>-0.05490339507272415</v>
+        <v>-0.007202537526586455</v>
       </c>
       <c r="F86">
-        <v>-0.04823481784083942</v>
+        <v>0.08556492285245823</v>
       </c>
       <c r="G86">
-        <v>-0.006988228088544394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07128151840559036</v>
+      </c>
+      <c r="H86">
+        <v>-0.02133562299526481</v>
+      </c>
+      <c r="I86">
+        <v>0.1400458844525109</v>
+      </c>
+      <c r="J86">
+        <v>-0.1536113467297512</v>
+      </c>
+      <c r="K86">
+        <v>0.06584172709316542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.05118334821283759</v>
+        <v>-0.02357219550114122</v>
       </c>
       <c r="C87">
-        <v>-0.1427211734474838</v>
+        <v>-0.1170541288027051</v>
       </c>
       <c r="D87">
-        <v>0.003031468111428041</v>
+        <v>-0.01372883919304415</v>
       </c>
       <c r="E87">
-        <v>-0.1344597431247479</v>
+        <v>-0.01888280377366127</v>
       </c>
       <c r="F87">
-        <v>0.03703449321645726</v>
+        <v>0.07819383475354458</v>
       </c>
       <c r="G87">
-        <v>-0.03161939761577651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.005153151134112271</v>
+      </c>
+      <c r="H87">
+        <v>-0.0445847198657129</v>
+      </c>
+      <c r="I87">
+        <v>-0.1040880588339717</v>
+      </c>
+      <c r="J87">
+        <v>-0.07145839861509243</v>
+      </c>
+      <c r="K87">
+        <v>-0.07965192497247907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.004704176506190379</v>
+        <v>-0.03557270391281971</v>
       </c>
       <c r="C88">
-        <v>-0.05187190916500393</v>
+        <v>-0.07095387721230383</v>
       </c>
       <c r="D88">
-        <v>0.0526226625916981</v>
+        <v>-0.0422002469347209</v>
       </c>
       <c r="E88">
-        <v>0.04175626327627761</v>
+        <v>-0.013294908504145</v>
       </c>
       <c r="F88">
-        <v>-0.04318161265327377</v>
+        <v>-0.01907912907287309</v>
       </c>
       <c r="G88">
-        <v>0.01016386722237542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02355100541468261</v>
+      </c>
+      <c r="H88">
+        <v>-0.0008268231007007289</v>
+      </c>
+      <c r="I88">
+        <v>0.02781173679314931</v>
+      </c>
+      <c r="J88">
+        <v>0.07847397730551241</v>
+      </c>
+      <c r="K88">
+        <v>-0.0681966386123937</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3892583728187738</v>
+        <v>-0.3933980810961091</v>
       </c>
       <c r="C89">
-        <v>0.09351478802572646</v>
+        <v>0.1066831766699002</v>
       </c>
       <c r="D89">
-        <v>0.1074263098729496</v>
+        <v>0.03023837045389447</v>
       </c>
       <c r="E89">
-        <v>-0.05584261931541123</v>
+        <v>-0.0335432531915656</v>
       </c>
       <c r="F89">
-        <v>0.05968807402471737</v>
+        <v>0.05626400820570845</v>
       </c>
       <c r="G89">
-        <v>-0.0728144658026363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001549690073344316</v>
+      </c>
+      <c r="H89">
+        <v>0.004336832373309952</v>
+      </c>
+      <c r="I89">
+        <v>-0.7414214770311804</v>
+      </c>
+      <c r="J89">
+        <v>0.03483911675371763</v>
+      </c>
+      <c r="K89">
+        <v>0.03642907626812979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3030494687662468</v>
+        <v>-0.3151696284199169</v>
       </c>
       <c r="C90">
-        <v>0.02145978939217216</v>
+        <v>0.06156808140982182</v>
       </c>
       <c r="D90">
-        <v>-0.0003312300259386736</v>
+        <v>0.008368486114572055</v>
       </c>
       <c r="E90">
-        <v>-0.0290845649778559</v>
+        <v>0.01598648571086758</v>
       </c>
       <c r="F90">
-        <v>0.06365065171846675</v>
+        <v>0.02987299072690157</v>
       </c>
       <c r="G90">
-        <v>0.02140754825123665</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03618983318163085</v>
+      </c>
+      <c r="H90">
+        <v>-0.01954347167640541</v>
+      </c>
+      <c r="I90">
+        <v>0.07669243965882887</v>
+      </c>
+      <c r="J90">
+        <v>-0.02092781815588309</v>
+      </c>
+      <c r="K90">
+        <v>-0.01279633010044211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02950751020377018</v>
+        <v>-0.0513544571016382</v>
       </c>
       <c r="C91">
-        <v>-0.11348151640402</v>
+        <v>-0.1002386230614317</v>
       </c>
       <c r="D91">
-        <v>0.05194342077424417</v>
+        <v>-0.04339029952328627</v>
       </c>
       <c r="E91">
-        <v>0.1221192196433258</v>
+        <v>0.04180230047744182</v>
       </c>
       <c r="F91">
-        <v>0.05294168588838997</v>
+        <v>-0.07247995422092388</v>
       </c>
       <c r="G91">
-        <v>-0.02293636896270225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.09414678003863856</v>
+      </c>
+      <c r="H91">
+        <v>0.02248749798976997</v>
+      </c>
+      <c r="I91">
+        <v>0.008689586271564062</v>
+      </c>
+      <c r="J91">
+        <v>0.04653777699870746</v>
+      </c>
+      <c r="K91">
+        <v>-0.04070145996090915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3749649765227847</v>
+        <v>-0.3554330098638296</v>
       </c>
       <c r="C92">
-        <v>0.1110426504101708</v>
+        <v>0.1239061972071514</v>
       </c>
       <c r="D92">
-        <v>-0.01968605087539248</v>
+        <v>0.05024709988087177</v>
       </c>
       <c r="E92">
-        <v>-0.01732997570547568</v>
+        <v>-0.05174430797167935</v>
       </c>
       <c r="F92">
-        <v>-0.08272963414817479</v>
+        <v>0.05100080935594504</v>
       </c>
       <c r="G92">
-        <v>-0.0733670642493215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02298050182359784</v>
+      </c>
+      <c r="H92">
+        <v>-0.08198438905959746</v>
+      </c>
+      <c r="I92">
+        <v>0.1597831848760443</v>
+      </c>
+      <c r="J92">
+        <v>0.002414467408756389</v>
+      </c>
+      <c r="K92">
+        <v>0.04066512069043975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.2990580933711308</v>
+        <v>-0.3109735424913573</v>
       </c>
       <c r="C93">
-        <v>0.08226474573695866</v>
+        <v>0.1097783987282886</v>
       </c>
       <c r="D93">
-        <v>0.02521280539866159</v>
+        <v>0.002174876543581133</v>
       </c>
       <c r="E93">
-        <v>-0.03297159080814988</v>
+        <v>-0.004552156180573835</v>
       </c>
       <c r="F93">
-        <v>0.0342008838281864</v>
+        <v>0.03070096235270836</v>
       </c>
       <c r="G93">
-        <v>-0.04627229031036947</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05365450974296296</v>
+      </c>
+      <c r="H93">
+        <v>-0.03723166418085923</v>
+      </c>
+      <c r="I93">
+        <v>0.1049488294828005</v>
+      </c>
+      <c r="J93">
+        <v>-0.004191042659289518</v>
+      </c>
+      <c r="K93">
+        <v>-0.03890770569408129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.06209511928579462</v>
+        <v>-0.07516956385245531</v>
       </c>
       <c r="C94">
-        <v>-0.2409238159739332</v>
+        <v>-0.1865681819796855</v>
       </c>
       <c r="D94">
-        <v>0.1709509558073373</v>
+        <v>-0.1050106496188089</v>
       </c>
       <c r="E94">
-        <v>0.3807398711133544</v>
+        <v>0.02584323195918315</v>
       </c>
       <c r="F94">
-        <v>0.1800145198589137</v>
+        <v>-0.2501812459140562</v>
       </c>
       <c r="G94">
-        <v>-0.2956660759366383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4678565502742942</v>
+      </c>
+      <c r="H94">
+        <v>0.2112083631991675</v>
+      </c>
+      <c r="I94">
+        <v>-0.1391733189097949</v>
+      </c>
+      <c r="J94">
+        <v>0.2651983683808664</v>
+      </c>
+      <c r="K94">
+        <v>0.4852891453659856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.03979495411151179</v>
+        <v>-0.03786695480575167</v>
       </c>
       <c r="C95">
-        <v>-0.08517862385709185</v>
+        <v>-0.1246231335585909</v>
       </c>
       <c r="D95">
-        <v>0.01855857870180491</v>
+        <v>-0.05253378886452713</v>
       </c>
       <c r="E95">
-        <v>-0.004606996832200636</v>
+        <v>-0.02757168730177518</v>
       </c>
       <c r="F95">
-        <v>-0.061963483452605</v>
+        <v>-0.05660762378749441</v>
       </c>
       <c r="G95">
-        <v>0.1475398868918087</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1046814370692046</v>
+      </c>
+      <c r="H95">
+        <v>-0.0664259690577403</v>
+      </c>
+      <c r="I95">
+        <v>-0.1467591374742593</v>
+      </c>
+      <c r="J95">
+        <v>0.2245996802026367</v>
+      </c>
+      <c r="K95">
+        <v>-0.3232185012239773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01076424439075942</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01304119198991555</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01104649788609052</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.03506133447523381</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.00792355310511356</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03146244495051741</v>
+      </c>
+      <c r="H97">
+        <v>-0.03445951871853147</v>
+      </c>
+      <c r="I97">
+        <v>-0.02700584986782615</v>
+      </c>
+      <c r="J97">
+        <v>0.008462170171446629</v>
+      </c>
+      <c r="K97">
+        <v>0.0678695919049591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08950481121559296</v>
+        <v>-0.1327846927760571</v>
       </c>
       <c r="C98">
-        <v>-0.1379376643384896</v>
+        <v>-0.1605083977882381</v>
       </c>
       <c r="D98">
-        <v>0.07339159400356489</v>
+        <v>-0.07569494991861947</v>
       </c>
       <c r="E98">
-        <v>-0.041970375521496</v>
+        <v>0.05657170872120577</v>
       </c>
       <c r="F98">
-        <v>-0.1313117779151958</v>
+        <v>-0.1284453201588248</v>
       </c>
       <c r="G98">
-        <v>0.2862101721504745</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.361571118721439</v>
+      </c>
+      <c r="H98">
+        <v>0.3209173389425029</v>
+      </c>
+      <c r="I98">
+        <v>0.1044690543716789</v>
+      </c>
+      <c r="J98">
+        <v>-0.1011669443179642</v>
+      </c>
+      <c r="K98">
+        <v>0.1819210671556708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.01126607923996855</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.02389856499362695</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01009689742524621</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005941130223469207</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.04326844230743399</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.0243918913655395</v>
+      </c>
+      <c r="H99">
+        <v>-0.1020961591980232</v>
+      </c>
+      <c r="I99">
+        <v>-0.002400239135534205</v>
+      </c>
+      <c r="J99">
+        <v>0.0236590970628187</v>
+      </c>
+      <c r="K99">
+        <v>0.4209740393130089</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01429151998999037</v>
+        <v>-0.01344990956578637</v>
       </c>
       <c r="C101">
-        <v>-0.06066401966348433</v>
+        <v>-0.07627794505792877</v>
       </c>
       <c r="D101">
-        <v>0.02626970672314516</v>
+        <v>-0.04784168583661452</v>
       </c>
       <c r="E101">
-        <v>-0.08469615723620305</v>
+        <v>0.0487282417493896</v>
       </c>
       <c r="F101">
-        <v>-0.03154433108969537</v>
+        <v>0.03658374235842956</v>
       </c>
       <c r="G101">
-        <v>0.08494134633613132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1272997965675499</v>
+      </c>
+      <c r="H101">
+        <v>-0.2903489309339317</v>
+      </c>
+      <c r="I101">
+        <v>-0.03735720223982256</v>
+      </c>
+      <c r="J101">
+        <v>0.1717340806268501</v>
+      </c>
+      <c r="K101">
+        <v>0.2071425850590482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.009476233192199673</v>
+        <v>-0.003716489525014834</v>
       </c>
       <c r="C102">
-        <v>-0.06153757547010557</v>
+        <v>-0.02539639585435357</v>
       </c>
       <c r="D102">
-        <v>0.02375635958861958</v>
+        <v>-0.007607072162994769</v>
       </c>
       <c r="E102">
-        <v>0.05754094698302878</v>
+        <v>0.008623836126175701</v>
       </c>
       <c r="F102">
-        <v>0.02876714494266842</v>
+        <v>-0.01996809590502004</v>
       </c>
       <c r="G102">
-        <v>-0.004970144959319235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03534450249028676</v>
+      </c>
+      <c r="H102">
+        <v>-0.007616976885214787</v>
+      </c>
+      <c r="I102">
+        <v>-0.01430707913273741</v>
+      </c>
+      <c r="J102">
+        <v>-0.004222632393775958</v>
+      </c>
+      <c r="K102">
+        <v>0.0194486645210555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
